--- a/ArticleManage/main_working_folder/output_folders/Data 153 Preparation of Activated Carbon/Data153_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 153 Preparation of Activated Carbon/Data153_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 GC-C01  0-1-0-1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 GC-C02  0-1-0-1000 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 GC-C03  0-1-0-1000 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 GC-C04  0-1-0-1000 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4 GC-C01  0&amp;1&amp;0&amp;1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 GC-C02  0&amp;1&amp;0&amp;1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 GC-C03  0&amp;1&amp;0&amp;1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 GC-C04  0&amp;1&amp;0&amp;1000 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C01  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 GC-C01  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C01  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 GC-C01  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C02  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 GC-C02  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C02  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 GC-C02  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C03  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 GC-C03  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C03  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 GC-C03  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C04  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 GC-C04  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 GC-C04  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 GC-C04  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
